--- a/xlsx/country_comparison/belief_all_mean.xlsx
+++ b/xlsx/country_comparison/belief_all_mean.xlsx
@@ -404,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>51.3683289283322</v>
+        <v>51.7468893271431</v>
       </c>
       <c r="C2" t="n">
-        <v>58.51905811066</v>
+        <v>58.7165906294257</v>
       </c>
       <c r="D2" t="n">
-        <v>61.1573061310944</v>
+        <v>61.2471232063537</v>
       </c>
       <c r="E2" t="n">
-        <v>55.7354278027379</v>
+        <v>55.8760774338855</v>
       </c>
       <c r="F2" t="n">
-        <v>63.9521280575879</v>
+        <v>63.2492428282122</v>
       </c>
       <c r="G2" t="n">
-        <v>56.6321504791927</v>
+        <v>56.9303970210785</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>53.3050523673449</v>
+        <v>52.7972736493319</v>
       </c>
       <c r="C3" t="n">
-        <v>75.2698343735098</v>
+        <v>75.7320866764204</v>
       </c>
       <c r="D3" t="n">
-        <v>80.5398319468679</v>
+        <v>80.2845995450502</v>
       </c>
       <c r="E3" t="n">
-        <v>70.8750845625958</v>
+        <v>71.2681465751731</v>
       </c>
       <c r="F3" t="n">
-        <v>81.3439832560037</v>
+        <v>80.9917713113721</v>
       </c>
       <c r="G3" t="n">
-        <v>74.5700372884844</v>
+        <v>74.106127773703</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>54.5059957090102</v>
+        <v>55.1540879537179</v>
       </c>
       <c r="C4" t="n">
-        <v>57.8918335070769</v>
+        <v>57.8956679241541</v>
       </c>
       <c r="D4" t="n">
-        <v>59.9384670317373</v>
+        <v>60.3249521322473</v>
       </c>
       <c r="E4" t="n">
-        <v>52.7341250609137</v>
+        <v>53.014236682396</v>
       </c>
       <c r="F4" t="n">
-        <v>63.1491487537694</v>
+        <v>62.0685304640517</v>
       </c>
       <c r="G4" t="n">
-        <v>59.6817492855367</v>
+        <v>59.0733426883397</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>54.3655064678521</v>
+        <v>55.7518324399071</v>
       </c>
       <c r="C5" t="n">
-        <v>72.4413635192711</v>
+        <v>72.6238536290562</v>
       </c>
       <c r="D5" t="n">
-        <v>76.7123422555058</v>
+        <v>76.8794438370656</v>
       </c>
       <c r="E5" t="n">
-        <v>66.1684892722312</v>
+        <v>65.8435932985819</v>
       </c>
       <c r="F5" t="n">
-        <v>80.196078442816</v>
+        <v>78.7745433104858</v>
       </c>
       <c r="G5" t="n">
-        <v>75.16505366876</v>
+        <v>74.9378737165197</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/belief_all_mean.xlsx
+++ b/xlsx/country_comparison/belief_all_mean.xlsx
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>52.7972736493319</v>
+        <v>54.2040008566919</v>
       </c>
       <c r="C3" t="n">
         <v>75.7320866764204</v>
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>55.7518324399071</v>
+        <v>55.8431322893747</v>
       </c>
       <c r="C5" t="n">
         <v>72.6238536290562</v>
